--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H2">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I2">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J2">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>2.899555292114</v>
+        <v>12.9994864079465</v>
       </c>
       <c r="R2">
-        <v>11.598221168456</v>
+        <v>51.997945631786</v>
       </c>
       <c r="S2">
-        <v>0.0001645450895178757</v>
+        <v>0.0005131027961722169</v>
       </c>
       <c r="T2">
-        <v>8.360335214197654E-05</v>
+        <v>0.0002495500424242809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H3">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I3">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J3">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>254.9421806367151</v>
+        <v>243.057286569735</v>
       </c>
       <c r="R3">
-        <v>1529.65308382029</v>
+        <v>1458.34371941841</v>
       </c>
       <c r="S3">
-        <v>0.01446755785235132</v>
+        <v>0.009593715432690201</v>
       </c>
       <c r="T3">
-        <v>0.01102618440916595</v>
+        <v>0.006998925296532868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H4">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I4">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J4">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>2.061546629904667</v>
+        <v>1.350607309923667</v>
       </c>
       <c r="R4">
-        <v>12.369279779428</v>
+        <v>8.103643859541998</v>
       </c>
       <c r="S4">
-        <v>0.0001169894485838974</v>
+        <v>5.330982821204711E-05</v>
       </c>
       <c r="T4">
-        <v>8.916136691328626E-05</v>
+        <v>3.889124165135809E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H5">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I5">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J5">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>111.4234266169765</v>
+        <v>63.39440338898149</v>
       </c>
       <c r="R5">
-        <v>445.6937064679061</v>
+        <v>253.577613555926</v>
       </c>
       <c r="S5">
-        <v>0.006323099875675012</v>
+        <v>0.002502240828581644</v>
       </c>
       <c r="T5">
-        <v>0.00321268988994969</v>
+        <v>0.001216977006530935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H6">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I6">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J6">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>5.236139557770334</v>
+        <v>9.038764523451665</v>
       </c>
       <c r="R6">
-        <v>31.416837346622</v>
+        <v>54.23258714070999</v>
       </c>
       <c r="S6">
-        <v>0.0002971424806433854</v>
+        <v>0.0003567691219008636</v>
       </c>
       <c r="T6">
-        <v>0.0002264617028532226</v>
+        <v>0.0002602745984923989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H7">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I7">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J7">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>1.445837512062667</v>
+        <v>0.5321840955786666</v>
       </c>
       <c r="R7">
-        <v>8.675025072376</v>
+        <v>3.193104573472</v>
       </c>
       <c r="S7">
-        <v>8.204894850520432E-05</v>
+        <v>2.100584122714827E-05</v>
       </c>
       <c r="T7">
-        <v>6.253210431430976E-05</v>
+        <v>1.532443968878648E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
         <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J8">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>72.31182101308931</v>
+        <v>340.0455915087257</v>
       </c>
       <c r="R8">
-        <v>433.8709260785359</v>
+        <v>2040.273549052354</v>
       </c>
       <c r="S8">
-        <v>0.004103579295128537</v>
+        <v>0.01342194132550538</v>
       </c>
       <c r="T8">
-        <v>0.003127467849618367</v>
+        <v>0.009791739741577654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
         <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J9">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
         <v>6357.98647641861</v>
       </c>
       <c r="R9">
-        <v>57221.8782877675</v>
+        <v>57221.87828776749</v>
       </c>
       <c r="S9">
-        <v>0.3608054851587261</v>
+        <v>0.2509561175494832</v>
       </c>
       <c r="T9">
-        <v>0.4124719447261932</v>
+        <v>0.2746208908988188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
         <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J10">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>51.41277744116311</v>
+        <v>35.32970820433756</v>
       </c>
       <c r="R10">
-        <v>462.714996970468</v>
+        <v>317.967373839038</v>
       </c>
       <c r="S10">
-        <v>0.002917592256104561</v>
+        <v>0.001394499097788411</v>
       </c>
       <c r="T10">
-        <v>0.003335384303440169</v>
+        <v>0.001525998203716797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
         <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J11">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>2778.781595958998</v>
+        <v>1658.295314311136</v>
       </c>
       <c r="R11">
-        <v>16672.68957575399</v>
+        <v>9949.771885866814</v>
       </c>
       <c r="S11">
-        <v>0.1576913769160578</v>
+        <v>0.065454583046619</v>
       </c>
       <c r="T11">
-        <v>0.1201815966009193</v>
+        <v>0.04775123259316152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
         <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J12">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>130.5837441799535</v>
+        <v>236.4394971024655</v>
       </c>
       <c r="R12">
-        <v>1175.253697619582</v>
+        <v>2127.95547392219</v>
       </c>
       <c r="S12">
-        <v>0.007410417016053595</v>
+        <v>0.00933250462992654</v>
       </c>
       <c r="T12">
-        <v>0.008471570537512867</v>
+        <v>0.01021254536774713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
         <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J13">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>36.05764776089511</v>
+        <v>13.92107733286756</v>
       </c>
       <c r="R13">
-        <v>324.5188298480559</v>
+        <v>125.289695995808</v>
       </c>
       <c r="S13">
-        <v>0.002046213395121988</v>
+        <v>0.0005494789164022339</v>
       </c>
       <c r="T13">
-        <v>0.002339226129113465</v>
+        <v>0.0006012939275040592</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H14">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I14">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J14">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>44.93297908316799</v>
+        <v>594.4448541764298</v>
       </c>
       <c r="R14">
-        <v>269.597874499008</v>
+        <v>3566.669125058579</v>
       </c>
       <c r="S14">
-        <v>0.002549874142994625</v>
+        <v>0.02346333595623135</v>
       </c>
       <c r="T14">
-        <v>0.001943339906275427</v>
+        <v>0.0171172614736466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H15">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I15">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J15">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>3950.71330459608</v>
+        <v>11114.60474185677</v>
       </c>
       <c r="R15">
-        <v>35556.41974136473</v>
+        <v>100031.4426767109</v>
       </c>
       <c r="S15">
-        <v>0.2241966125399434</v>
+        <v>0.4387046220464159</v>
       </c>
       <c r="T15">
-        <v>0.2563010169723268</v>
+        <v>0.4800737886935981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H16">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I16">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J16">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>31.94677192478933</v>
+        <v>61.76102195132956</v>
       </c>
       <c r="R16">
-        <v>287.5209473231041</v>
+        <v>555.849197561966</v>
       </c>
       <c r="S16">
-        <v>0.001812927817058143</v>
+        <v>0.002437769621291279</v>
       </c>
       <c r="T16">
-        <v>0.002072534629070894</v>
+        <v>0.002667647522372447</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H17">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I17">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J17">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>1726.673918297768</v>
+        <v>2898.9204415898</v>
       </c>
       <c r="R17">
-        <v>10360.04350978661</v>
+        <v>17393.5226495388</v>
       </c>
       <c r="S17">
-        <v>0.09798596192568039</v>
+        <v>0.1144233039507822</v>
       </c>
       <c r="T17">
-        <v>0.0746782073884345</v>
+        <v>0.08347549624050427</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H18">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I18">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J18">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>81.14187367481065</v>
+        <v>413.3276416054255</v>
       </c>
       <c r="R18">
-        <v>730.276863073296</v>
+        <v>3719.94877444883</v>
       </c>
       <c r="S18">
-        <v>0.004604670551991995</v>
+        <v>0.01631445750913428</v>
       </c>
       <c r="T18">
-        <v>0.005264048068914558</v>
+        <v>0.01785288559385672</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H19">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I19">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J19">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>22.40543122728533</v>
+        <v>24.33589198553956</v>
       </c>
       <c r="R19">
-        <v>201.648881045568</v>
+        <v>219.023027869856</v>
       </c>
       <c r="S19">
-        <v>0.001271472110570577</v>
+        <v>0.0009605621201690155</v>
       </c>
       <c r="T19">
-        <v>0.001453543794882852</v>
+        <v>0.001051141640938319</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H20">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I20">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J20">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>8.126158500130998</v>
+        <v>16.46892557889425</v>
       </c>
       <c r="R20">
-        <v>32.50463400052399</v>
+        <v>65.875702315577</v>
       </c>
       <c r="S20">
-        <v>0.0004611463976828111</v>
+        <v>0.0006500450478810611</v>
       </c>
       <c r="T20">
-        <v>0.0002343028575780845</v>
+        <v>0.0003161525731034326</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H21">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I21">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J21">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>714.4890714301725</v>
+        <v>307.9269625204575</v>
       </c>
       <c r="R21">
-        <v>4286.934428581036</v>
+        <v>1847.561775122745</v>
       </c>
       <c r="S21">
-        <v>0.04054610323788901</v>
+        <v>0.01215418675229207</v>
       </c>
       <c r="T21">
-        <v>0.03090147044419012</v>
+        <v>0.008866871830442437</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H22">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I22">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J22">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>5.777594486843667</v>
+        <v>1.711071543553166</v>
       </c>
       <c r="R22">
-        <v>34.665566921062</v>
+        <v>10.266429261319</v>
       </c>
       <c r="S22">
-        <v>0.0003278691751873996</v>
+        <v>6.753771386776885E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002498794906916415</v>
+        <v>4.927094381478619E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H23">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I23">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J23">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>312.2701014806747</v>
+        <v>80.31376615720174</v>
       </c>
       <c r="R23">
-        <v>1249.080405922699</v>
+        <v>321.255064628807</v>
       </c>
       <c r="S23">
-        <v>0.01772082496293145</v>
+        <v>0.003170065085124506</v>
       </c>
       <c r="T23">
-        <v>0.009003734927388022</v>
+        <v>0.001541776584306572</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H24">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I24">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J24">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>14.67456064416883</v>
+        <v>11.45112472834916</v>
       </c>
       <c r="R24">
-        <v>88.047363865013</v>
+        <v>68.70674837009499</v>
       </c>
       <c r="S24">
-        <v>0.0008327576650796705</v>
+        <v>0.0004519874041978348</v>
       </c>
       <c r="T24">
-        <v>0.0006346710119996231</v>
+        <v>0.0003297394110914739</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H25">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I25">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J25">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>4.052036814200666</v>
+        <v>0.6742189644506666</v>
       </c>
       <c r="R25">
-        <v>24.312220885204</v>
+        <v>4.045313786704</v>
       </c>
       <c r="S25">
-        <v>0.000229946558403537</v>
+        <v>2.661210028116961E-05</v>
       </c>
       <c r="T25">
-        <v>0.000175249560643601</v>
+        <v>1.941438675751078E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H26">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I26">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J26">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>1.43632642957</v>
+        <v>21.67825224146634</v>
       </c>
       <c r="R26">
-        <v>8.617958577419998</v>
+        <v>130.069513448798</v>
       </c>
       <c r="S26">
-        <v>8.150920990307309E-05</v>
+        <v>0.0008556624078950907</v>
       </c>
       <c r="T26">
-        <v>6.212075241784046E-05</v>
+        <v>0.0006242333654699472</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H27">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I27">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J27">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>126.288397761075</v>
+        <v>405.32810312907</v>
       </c>
       <c r="R27">
-        <v>1136.595579849675</v>
+        <v>3647.95292816163</v>
       </c>
       <c r="S27">
-        <v>0.007166663029734763</v>
+        <v>0.01599870768398764</v>
       </c>
       <c r="T27">
-        <v>0.008192911578856904</v>
+        <v>0.01750736104904932</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H28">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I28">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J28">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>1.021209672523333</v>
+        <v>2.252304823811778</v>
       </c>
       <c r="R28">
-        <v>9.19088705271</v>
+        <v>20.270743414306</v>
       </c>
       <c r="S28">
-        <v>5.795200299814319E-05</v>
+        <v>8.890073551086955E-05</v>
       </c>
       <c r="T28">
-        <v>6.625058753446223E-05</v>
+        <v>9.728393723154145E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H29">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I29">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J29">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>55.1948131351325</v>
+        <v>105.7180125611363</v>
       </c>
       <c r="R29">
-        <v>331.168878810795</v>
+        <v>634.308075366818</v>
       </c>
       <c r="S29">
-        <v>0.003132216686104749</v>
+        <v>0.00417279622814402</v>
       </c>
       <c r="T29">
-        <v>0.002387161616557466</v>
+        <v>0.00304418963469762</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H30">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I30">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J30">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>2.593779003351666</v>
+        <v>15.07325836894778</v>
       </c>
       <c r="R30">
-        <v>23.344011030165</v>
+        <v>135.65932532053</v>
       </c>
       <c r="S30">
-        <v>0.0001471927779604164</v>
+        <v>0.0005949566601189375</v>
       </c>
       <c r="T30">
-        <v>0.000168270422353127</v>
+        <v>0.0006510601520436411</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H31">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I31">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J31">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>0.7162114263133332</v>
+        <v>0.8874828359217778</v>
       </c>
       <c r="R31">
-        <v>6.445902836819999</v>
+        <v>7.987345523296001</v>
       </c>
       <c r="S31">
-        <v>4.064384410153179E-05</v>
+        <v>3.502983967027716E-05</v>
       </c>
       <c r="T31">
-        <v>4.646394278161262E-05</v>
+        <v>3.8333099317244E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H32">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I32">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J32">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>5.461843124592667</v>
+        <v>11.245022576095</v>
       </c>
       <c r="R32">
-        <v>32.771058747556</v>
+        <v>67.47013545657001</v>
       </c>
       <c r="S32">
-        <v>0.0003099507942866158</v>
+        <v>0.0004438523450654926</v>
       </c>
       <c r="T32">
-        <v>0.0002362233246585048</v>
+        <v>0.0003238046226823732</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H33">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I33">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J33">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>480.2302616081851</v>
+        <v>210.25328147505</v>
       </c>
       <c r="R33">
-        <v>4322.072354473666</v>
+        <v>1892.27953327545</v>
       </c>
       <c r="S33">
-        <v>0.02725229334319759</v>
+        <v>0.008298908375586675</v>
       </c>
       <c r="T33">
-        <v>0.03115475483575957</v>
+        <v>0.009081482586858643</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H34">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I34">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J34">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>3.883300420997557</v>
+        <v>1.168323825643333</v>
       </c>
       <c r="R34">
-        <v>34.94970378897801</v>
+        <v>10.51491443079</v>
       </c>
       <c r="S34">
-        <v>0.0002203710400473112</v>
+        <v>4.611491584819565E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002519276318919064</v>
+        <v>5.046348101659031E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H35">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I35">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J35">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>209.8864188731469</v>
+        <v>54.838435530145</v>
       </c>
       <c r="R35">
-        <v>1259.318513238881</v>
+        <v>329.03061318087</v>
       </c>
       <c r="S35">
-        <v>0.01191071599013691</v>
+        <v>0.002164528176361401</v>
       </c>
       <c r="T35">
-        <v>0.009077534183221325</v>
+        <v>0.001579093221482585</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H36">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I36">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J36">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>9.863227275160778</v>
+        <v>7.818855909883333</v>
       </c>
       <c r="R36">
-        <v>88.769045476447</v>
+        <v>70.36970318895</v>
       </c>
       <c r="S36">
-        <v>0.0005597222509742972</v>
+        <v>0.0003086181026179901</v>
       </c>
       <c r="T36">
-        <v>0.0006398731029943355</v>
+        <v>0.0003377203118857786</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H37">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I37">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J37">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>2.723499598719556</v>
+        <v>0.4603583542933334</v>
       </c>
       <c r="R37">
-        <v>24.511496388476</v>
+        <v>4.143225188640001</v>
       </c>
       <c r="S37">
-        <v>0.000154554212672551</v>
+        <v>1.817080701624913E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001766859964410688</v>
+        <v>1.988428598545284E-05</v>
       </c>
     </row>
   </sheetData>
